--- a/Assets/StreamingAssets/5_He_Ling.xlsx
+++ b/Assets/StreamingAssets/5_He_Ling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5DD680-F012-824B-B8E2-7D939452A0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8FC3BF-9832-8E49-BD0F-068BBE49AB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="600" windowWidth="16900" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,7 +616,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -723,6 +723,9 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -740,6 +743,9 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -757,6 +763,9 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -774,6 +783,9 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -791,7 +803,12 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K7" s="2">
         <v>500</v>
       </c>
@@ -812,6 +829,9 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -829,6 +849,9 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -846,6 +869,9 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -863,7 +889,12 @@
       <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K11" s="2">
         <v>500</v>
       </c>
@@ -884,6 +915,9 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -898,6 +932,9 @@
       <c r="D13" t="s">
         <v>13</v>
       </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -911,6 +948,9 @@
       </c>
       <c r="D14" t="s">
         <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>14</v>

--- a/Assets/StreamingAssets/5_He_Ling.xlsx
+++ b/Assets/StreamingAssets/5_He_Ling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8FC3BF-9832-8E49-BD0F-068BBE49AB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1761605-75FD-EE47-938F-0371DF97D877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="380" yWindow="3900" windowWidth="28800" windowHeight="15880" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>It should’ve been during the Shen hour, in the main hall. After I brought two new guests there, the Lord told me I could leave.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>After that, I was busy in the kitchen and the storeroom, preparing food for the banquet.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,31 +188,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Near the Wu hour, I went to the banquet hall with Steward He.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Can you tell me what you did after the banquet started?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I was with Steward He the entire time.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Waiting for the Lord, reheating the dishes in the kitchen—we were always together.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It wasn’t until Steward He told us to go to the reception room that I found out the Lord had been killed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Do you have anything else to add?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I’m sorry, I’m just a low-ranking servant… I really don’t know anything.</t>
+    <t>It should’ve been during 3-5 PM in the main hall. After serving you tea in the main hall, I didn’t see the Lord again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Near 7 PM, I went to the banquet hall with Butler He.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was with Butler He the entire time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waiting for the Lord, reheating the dishes in the kitchen——we were always together.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It wasn’t until Butler He told us to go to the meeting hall that I found out the Lord had been killed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m sorry, I’m just a low-ranking servant, I really don’t know anything.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +616,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -735,7 +735,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -755,7 +755,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -775,7 +775,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -790,12 +790,12 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="34">
+    <row r="7" spans="1:16" ht="17">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -841,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -861,7 +861,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -881,7 +881,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
